--- a/data_icct/pypsa_earth_data.xlsx
+++ b/data_icct/pypsa_earth_data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\PyPSA\efuels-supply-potentials\data_icct\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2030" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="2030" sheetId="1" r:id="rId1"/>
+    <sheet name="2040" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,533 +25,599 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="165">
-  <si>
-    <t xml:space="preserve">E-fuels synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer-Tropsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%/year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), section 6.3.2.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MWh_FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, data_sheets_for_renewable_fuels.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 Hydrogen to Jet:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capture rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assumption based on doi:10.1016/j.biombioe.2015.01.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbondioxide-input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_CO2/MWh_FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEA (2022): Technology Data for Renewable Fuels (https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-renewable-fuels), Hydrogen to Jet Fuel, Table 10 / pg. 267.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input per 1t FT liquid fuels output, carbon efficiency increases with years (4.3, 3.9, 3.6, 3.3 t_CO2/t_FT from 2020-2050 with LHV 11.95 MWh_th/t_FT).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), section 6.3.2.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity-input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh_el/MWh_FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005 MWh_el input per FT output, output increasing from 2020 to 2050 (0.65, 0.7, 0.73, 0.75 MWh liquid FT output).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen-input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh_H2/MWh_FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995 MWh_H2 per output, output increasing from 2020 to 2050 (0.65, 0.7, 0.73, 0.75 MWh liquid FT output).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MW_FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), table 8: “Reference scenario”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well developed technology, no significant learning expected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, Technology Data for Renewable Fuels (04/2022), Data sheet “Methanol to Power”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrobiofuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C in fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoichiometric calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combination of BtL and electrofuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MWh_th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency-biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency-hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency-tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kW_th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrolysis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="193">
+  <si>
+    <t>E-fuels synthesis</t>
+  </si>
+  <si>
+    <t>Fischer-Tropsch</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>%/year</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), section 6.3.2.1.</t>
+  </si>
+  <si>
+    <t>VOM</t>
+  </si>
+  <si>
+    <t>EUR/MWh_FT</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, data_sheets_for_renewable_fuels.xlsx</t>
+  </si>
+  <si>
+    <t>102 Hydrogen to Jet:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>capture rate</t>
+  </si>
+  <si>
+    <t>per unit</t>
+  </si>
+  <si>
+    <t>Assumption based on doi:10.1016/j.biombioe.2015.01.006</t>
+  </si>
+  <si>
+    <t>carbondioxide-input</t>
+  </si>
+  <si>
+    <t>t_CO2/MWh_FT</t>
+  </si>
+  <si>
+    <t>DEA (2022): Technology Data for Renewable Fuels (https://ens.dk/en/our-services/projections-and-models/technology-data/technology-data-renewable-fuels), Hydrogen to Jet Fuel, Table 10 / pg. 267.</t>
+  </si>
+  <si>
+    <t>Input per 1t FT liquid fuels output, carbon efficiency increases with years (4.3, 3.9, 3.6, 3.3 t_CO2/t_FT from 2020-2050 with LHV 11.95 MWh_th/t_FT).</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), section 6.3.2.2.</t>
+  </si>
+  <si>
+    <t>electricity-input</t>
+  </si>
+  <si>
+    <t>MWh_el/MWh_FT</t>
+  </si>
+  <si>
+    <t>0.005 MWh_el input per FT output, output increasing from 2020 to 2050 (0.65, 0.7, 0.73, 0.75 MWh liquid FT output).</t>
+  </si>
+  <si>
+    <t>hydrogen-input</t>
+  </si>
+  <si>
+    <t>MWh_H2/MWh_FT</t>
+  </si>
+  <si>
+    <t>0.995 MWh_H2 per output, output increasing from 2020 to 2050 (0.65, 0.7, 0.73, 0.75 MWh liquid FT output).</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>EUR/MW_FT</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), table 8: “Reference scenario”.</t>
+  </si>
+  <si>
+    <t>Well developed technology, no significant learning expected.</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, Technology Data for Renewable Fuels (04/2022), Data sheet “Methanol to Power”.</t>
+  </si>
+  <si>
+    <t>electrobiofuels</t>
+  </si>
+  <si>
+    <t>C in fuel</t>
+  </si>
+  <si>
+    <t>Stoichiometric calculation</t>
+  </si>
+  <si>
+    <t>combination of BtL and electrofuels</t>
+  </si>
+  <si>
+    <t>EUR/MWh_th</t>
+  </si>
+  <si>
+    <t>efficiency-biomass</t>
+  </si>
+  <si>
+    <t>efficiency-hydrogen</t>
+  </si>
+  <si>
+    <t>efficiency-tot</t>
+  </si>
+  <si>
+    <t>EUR/kW_th</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>electrolysis</t>
   </si>
   <si>
     <t xml:space="preserve">86 AEC 100MW:  Fixed O&amp;M </t>
   </si>
   <si>
-    <t xml:space="preserve">86 AEC 100MW:  Hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency-heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 AEC 100MW:   - hereof recoverable for district heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kW_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 AEC 100MW:  Specific investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 AEC 100MW:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digestible biomass to hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zech et.al. DBFZ Report Nr. 19. Hy-NOW - Evaluierung der Verfahren und Technologien für die Bereitstellung von Wasserstoff auf Basis von Biomasse, DBFZ, 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass to hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen storage compressor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on Stöckl et al (2021): https://doi.org/10.48550/arXiv.2005.03464, table SI.4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compression-electricity-input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh_el/MWh_H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.707 kWh/kg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kW_H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2923 EUR/kg_H2. For a 206 kg/h compressor. Base CAPEX 40 528 EUR/kW_el with scale factor 0.4603. kg_H2 converted to MWh using LHV. Pressure range: 30 bar in, 250 bar out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen storage tank type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on Stöckl et al (2021): https://doi.org/10.48550/arXiv.2005.03464, table SI.9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kWh_H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450 EUR/kg_H2 converted with LHV to MWh. For a type 1 hydrogen storage tank (steel, 15-250 bar). Currency year assumed 2020 for initial publication of reference; observe note in SI.4.3 that no currency year is explicitly stated in the reference.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_fill_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen storage tank type 1 including compressor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, technology_data_catalogue_for_energy_storage.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151a Hydrogen Storage - Tanks:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151a Hydrogen Storage - Tanks:  Specific investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151a Hydrogen Storage - Tanks:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydrogen storage underground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151c Hydrogen Storage - Caverns:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151c Hydrogen Storage - Caverns:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151c Hydrogen Storage - Caverns:  Specific investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151c Hydrogen Storage - Caverns:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct air capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, technology_data_for_carbon_capture_transport_storage.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403.a Direct air capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh/tCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compression-heat-output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh_el/t_CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beuttler et al (2019): The Role of Direct Air Capture in Mitigation of Antropogenic Greenhouse Gas emissions (https://doi.org/10.3389/fclim.2019.00010), alternative:  Breyer et al (2019).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4 MWh based on Beuttler et al (2019) for Climeworks LT DAC, alternative value: 0.182 MWh based on Breyer et al (2019). Should already include electricity for water scrubbing and compression (high quality CO2 output).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heat-input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWh_th/t_CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermal energy demand. Provided via air-sourced heat pumps. 1.6 MWh based on Beuttler et al (2019) for Climeworks LT DAC, alternative value: 1.102 MWh based on Breyer et al (2019).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heat-output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/(tCO2/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology data for renewable fuels, in pdf on table 3 p.311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capture_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MW_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEA Global average levelised cost of hydrogen production by energy source and technology, 2019 and 2050 (2020), https://www.iea.org/data-and-statistics/charts/global-average-levelised-cost-of-hydrogen-production-by-energy-source-and-technology-2019-and-2050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wide range: capture rates betwen 54%-90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per unit (in LHV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biogas CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 stored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tCO2/MWh_th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoichiometric calculation, doi:10.1016/j.apenergy.2022.120016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81 Biogas Plant, Basic conf.:  Total O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assuming input biomass is already given in biogas output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81 Biogas Plant, Basic conf.:  Specific investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81 Biogas Plant, Basic conf.:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass CHP capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401.a Post comb - small CHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cement capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401.c Post comb - Cement kiln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">central gas CHP CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, technology_data_for_el_and_dh.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50oC/100oC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Cb coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Electricity efficiency, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Nominal investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Gas turb. simple cycle, L:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">central solid biomass CHP CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR/MWh_e</t>
+    <t>86 AEC 100MW:  Hydrogen</t>
+  </si>
+  <si>
+    <t>efficiency-heat</t>
+  </si>
+  <si>
+    <t>86 AEC 100MW:   - hereof recoverable for district heating</t>
+  </si>
+  <si>
+    <t>EUR/kW_e</t>
+  </si>
+  <si>
+    <t>86 AEC 100MW:  Specific investment</t>
+  </si>
+  <si>
+    <t>86 AEC 100MW:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>digestible biomass to hydrogen</t>
+  </si>
+  <si>
+    <t>Zech et.al. DBFZ Report Nr. 19. Hy-NOW - Evaluierung der Verfahren und Technologien für die Bereitstellung von Wasserstoff auf Basis von Biomasse, DBFZ, 2014</t>
+  </si>
+  <si>
+    <t>solid biomass to hydrogen</t>
+  </si>
+  <si>
+    <t>hydrogen storage compressor</t>
+  </si>
+  <si>
+    <t>Based on Stöckl et al (2021): https://doi.org/10.48550/arXiv.2005.03464, table SI.4.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>compression-electricity-input</t>
+  </si>
+  <si>
+    <t>MWh_el/MWh_H2</t>
+  </si>
+  <si>
+    <t>1.707 kWh/kg.</t>
+  </si>
+  <si>
+    <t>EUR/kW_H2</t>
+  </si>
+  <si>
+    <t>2923 EUR/kg_H2. For a 206 kg/h compressor. Base CAPEX 40 528 EUR/kW_el with scale factor 0.4603. kg_H2 converted to MWh using LHV. Pressure range: 30 bar in, 250 bar out.</t>
+  </si>
+  <si>
+    <t>hydrogen storage tank type 1</t>
+  </si>
+  <si>
+    <t>Based on Stöckl et al (2021): https://doi.org/10.48550/arXiv.2005.03464, table SI.9.</t>
+  </si>
+  <si>
+    <t>EUR/kWh_H2</t>
+  </si>
+  <si>
+    <t>450 EUR/kg_H2 converted with LHV to MWh. For a type 1 hydrogen storage tank (steel, 15-250 bar). Currency year assumed 2020 for initial publication of reference; observe note in SI.4.3 that no currency year is explicitly stated in the reference.</t>
+  </si>
+  <si>
+    <t>min_fill_level</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>hydrogen storage tank type 1 including compressor</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, technology_data_catalogue_for_energy_storage.xlsx</t>
+  </si>
+  <si>
+    <t>151a Hydrogen Storage - Tanks:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>EUR/kWh</t>
+  </si>
+  <si>
+    <t>151a Hydrogen Storage - Tanks:  Specific investment</t>
+  </si>
+  <si>
+    <t>151a Hydrogen Storage - Tanks:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>hydrogen storage underground</t>
+  </si>
+  <si>
+    <t>151c Hydrogen Storage - Caverns:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>EUR/MWh</t>
+  </si>
+  <si>
+    <t>151c Hydrogen Storage - Caverns:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>151c Hydrogen Storage - Caverns:  Specific investment</t>
+  </si>
+  <si>
+    <t>151c Hydrogen Storage - Caverns:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>direct air capture</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, technology_data_for_carbon_capture_transport_storage.xlsx</t>
+  </si>
+  <si>
+    <t>403.a Direct air capture</t>
+  </si>
+  <si>
+    <t>MWh/tCO2</t>
+  </si>
+  <si>
+    <t>compression-heat-output</t>
+  </si>
+  <si>
+    <t>MWh_el/t_CO2</t>
+  </si>
+  <si>
+    <t>Beuttler et al (2019): The Role of Direct Air Capture in Mitigation of Antropogenic Greenhouse Gas emissions (https://doi.org/10.3389/fclim.2019.00010), alternative:  Breyer et al (2019).</t>
+  </si>
+  <si>
+    <t>0.4 MWh based on Beuttler et al (2019) for Climeworks LT DAC, alternative value: 0.182 MWh based on Breyer et al (2019). Should already include electricity for water scrubbing and compression (high quality CO2 output).</t>
+  </si>
+  <si>
+    <t>heat-input</t>
+  </si>
+  <si>
+    <t>MWh_th/t_CO2</t>
+  </si>
+  <si>
+    <t>Thermal energy demand. Provided via air-sourced heat pumps. 1.6 MWh based on Beuttler et al (2019) for Climeworks LT DAC, alternative value: 1.102 MWh based on Breyer et al (2019).</t>
+  </si>
+  <si>
+    <t>heat-output</t>
+  </si>
+  <si>
+    <t>EUR/(tCO2/h)</t>
+  </si>
+  <si>
+    <t>SMR CC</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency</t>
+  </si>
+  <si>
+    <t>Technology data for renewable fuels, in pdf on table 3 p.311</t>
+  </si>
+  <si>
+    <t>capture_rate</t>
+  </si>
+  <si>
+    <t>EUR/MW_CH4</t>
+  </si>
+  <si>
+    <t>IEA Global average levelised cost of hydrogen production by energy source and technology, 2019 and 2050 (2020), https://www.iea.org/data-and-statistics/charts/global-average-levelised-cost-of-hydrogen-production-by-energy-source-and-technology-2019-and-2050</t>
+  </si>
+  <si>
+    <t>wide range: capture rates betwen 54%-90%</t>
+  </si>
+  <si>
+    <t>per unit (in LHV)</t>
+  </si>
+  <si>
+    <t>biogas CC</t>
+  </si>
+  <si>
+    <t>CO2 stored</t>
+  </si>
+  <si>
+    <t>tCO2/MWh_th</t>
+  </si>
+  <si>
+    <t>Stoichiometric calculation, doi:10.1016/j.apenergy.2022.120016</t>
+  </si>
+  <si>
+    <t>81 Biogas Plant, Basic conf.:  Total O&amp;M</t>
+  </si>
+  <si>
+    <t>Assuming input biomass is already given in biogas output</t>
+  </si>
+  <si>
+    <t>EUR/kW</t>
+  </si>
+  <si>
+    <t>81 Biogas Plant, Basic conf.:  Specific investment</t>
+  </si>
+  <si>
+    <t>81 Biogas Plant, Basic conf.:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>biomass CHP capture</t>
+  </si>
+  <si>
+    <t>401.a Post comb - small CHP</t>
+  </si>
+  <si>
+    <t>cement capture</t>
+  </si>
+  <si>
+    <t>401.c Post comb - Cement kiln</t>
+  </si>
+  <si>
+    <t>central gas CHP CC</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, technology_data_for_el_and_dh.xlsx</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>c_b</t>
+  </si>
+  <si>
+    <t>50oC/100oC</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Cb coefficient</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Electricity efficiency, annual average</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Nominal investment</t>
+  </si>
+  <si>
+    <t>04 Gas turb. simple cycle, L:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>central solid biomass CHP CC</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>EUR/MWh_e</t>
   </si>
   <si>
     <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Variable O&amp;M </t>
   </si>
   <si>
-    <t xml:space="preserve">50°C/100°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Cb coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Cv coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Electricity efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Heat efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combination of central solid biomass CHP CC and solid biomass boiler steam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">central solid biomass CHP powerboost CC</t>
+    <t>50°C/100°C</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Cb coefficient</t>
+  </si>
+  <si>
+    <t>c_v</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Cv coefficient</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Electricity efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Heat efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>Combination of central solid biomass CHP CC and solid biomass boiler steam</t>
+  </si>
+  <si>
+    <t>09a Wood Chips, Large 50 degree:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>central solid biomass CHP powerboost CC</t>
   </si>
   <si>
     <t xml:space="preserve">09a Wood Chips, Large 50 degree:  Nominal investment </t>
   </si>
   <si>
-    <t xml:space="preserve">direct firing gas CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Energy Agency, technology_data_for_industrial_process_heat.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.a Direct firing Natural Gas:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.a Direct firing Natural Gas:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.a Direct firing Natural Gas:  Total efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.a Direct firing Natural Gas:  Nominal investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.a Direct firing Natural Gas:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direct firing solid fuels CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.b Direct firing Sold Fuels:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.b Direct firing Sold Fuels:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.b Direct firing Sold Fuels:  Total efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.b Direct firing Sold Fuels:  Nominal investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312.b Direct firing Sold Fuels:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solid biomass boiler steam CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.1e Steam boiler Wood:  Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.1e Steam boiler Wood:  Variable O&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.1e Steam boiler Wood:  Total efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.1e Steam boiler Wood:  Nominal investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311.1e Steam boiler Wood:  Technical lifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waste CHP CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Fixed O&amp;M</t>
+    <t>direct firing gas CC</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, technology_data_for_industrial_process_heat.xlsx</t>
+  </si>
+  <si>
+    <t>312.a Direct firing Natural Gas:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>312.a Direct firing Natural Gas:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>312.a Direct firing Natural Gas:  Total efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>312.a Direct firing Natural Gas:  Nominal investment</t>
+  </si>
+  <si>
+    <t>312.a Direct firing Natural Gas:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>direct firing solid fuels CC</t>
+  </si>
+  <si>
+    <t>312.b Direct firing Sold Fuels:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>312.b Direct firing Sold Fuels:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>312.b Direct firing Sold Fuels:  Total efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>312.b Direct firing Sold Fuels:  Nominal investment</t>
+  </si>
+  <si>
+    <t>312.b Direct firing Sold Fuels:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>solid biomass boiler steam CC</t>
+  </si>
+  <si>
+    <t>311.1e Steam boiler Wood:  Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>311.1e Steam boiler Wood:  Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>311.1e Steam boiler Wood:  Total efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>311.1e Steam boiler Wood:  Nominal investment</t>
+  </si>
+  <si>
+    <t>311.1e Steam boiler Wood:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>waste CHP CC</t>
+  </si>
+  <si>
+    <t>08 WtE CHP, Large, 50 degree:  Fixed O&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Variable O&amp;M </t>
   </si>
   <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Cb coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Cv coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Electricity efficiency, net, annual average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Heat efficiency, net, annual average</t>
+    <t>08 WtE CHP, Large, 50 degree:  Cb coefficient</t>
+  </si>
+  <si>
+    <t>08 WtE CHP, Large, 50 degree:  Cv coefficient</t>
+  </si>
+  <si>
+    <t>08 WtE CHP, Large, 50 degree:  Electricity efficiency, net, annual average</t>
+  </si>
+  <si>
+    <t>08 WtE CHP, Large, 50 degree:  Heat efficiency, net, annual average</t>
   </si>
   <si>
     <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Nominal investment </t>
   </si>
   <si>
-    <t xml:space="preserve">08 WtE CHP, Large, 50 degree:  Technical lifetime</t>
+    <t>08 WtE CHP, Large, 50 degree:  Technical lifetime</t>
+  </si>
+  <si>
+    <t>BtL</t>
+  </si>
+  <si>
+    <t>C stored</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.enpol.2017.05.013</t>
+  </si>
+  <si>
+    <t>BioSNG</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Solid Biomass to Gas</t>
+  </si>
+  <si>
+    <t>Biomass to liquid</t>
+  </si>
+  <si>
+    <t>Implemented/used in PyPSA-Eur/PyPSA-Earth</t>
+  </si>
+  <si>
+    <t>methanation</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), section 6.2.3.1</t>
+  </si>
+  <si>
+    <t>t_CO2/MWh_CH4</t>
+  </si>
+  <si>
+    <t>GÃ¶tz et al. (2016): Renewable Power-to-Gas: A technological and economic review (https://doi.org/10.1016/j.renene.2015.07.066), Fig. 11 .</t>
+  </si>
+  <si>
+    <t>Palzer and Schaber thesis</t>
+  </si>
+  <si>
+    <t>MWh_H2/MWh_CH4</t>
+  </si>
+  <si>
+    <t>EUR/kW_CH4</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), table 6: â€œReference scenarioâ€.</t>
+  </si>
+  <si>
+    <t>Guesstimate.</t>
+  </si>
+  <si>
+    <t>methanolisation</t>
+  </si>
+  <si>
+    <t>EUR/MWh_MeOH</t>
+  </si>
+  <si>
+    <t>t_CO2/MWh_MeOH</t>
+  </si>
+  <si>
+    <t>DECHEMA 2017: DECHEMA: Low carbon energy and feedstock for the European chemical industry (https://dechema.de/dechema_media/Downloads/Positionspapiere/Technology_study_Low_carbon_energy_and_feedstock_for_the_European_chemical_industry.pdf) , pg. 66.</t>
+  </si>
+  <si>
+    <t>MWh_e/MWh_MeOH</t>
+  </si>
+  <si>
+    <t>DECHEMA 2017: DECHEMA: Low carbon energy and feedstock for the European chemical industry (https://dechema.de/dechema_media/Downloads/Positionspapiere/Technology_study_Low_carbon_energy_and_feedstock_for_the_European_chemical_industry.pdf) , pg. 65.</t>
+  </si>
+  <si>
+    <t>MWh_H2/MWh_MeOH</t>
+  </si>
+  <si>
+    <t>DECHEMA 2017: DECHEMA: Low carbon energy and feedstock for the European chemical industry (https://dechema.de/dechema_media/Downloads/Positionspapiere/Technology_study_Low_carbon_energy_and_feedstock_for_the_European_chemical_industry.pdf) , pg. 64.</t>
+  </si>
+  <si>
+    <t>EUR/MW_MeOH</t>
+  </si>
+  <si>
+    <t>Agora Energiewende (2018): The Future Cost of Electricity-Based Synthetic Fuels (https://www.agora-energiewende.de/en/publications/the-future-cost-of-electricity-based-synthetic-fuels-1/), table 8: â€œReference scenarioâ€.</t>
+  </si>
+  <si>
+    <t>Danish Energy Agency, Technology Data for Renewable Fuels (04/2022), Data sheet â€œMethanol to Powerâ€.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -562,129 +632,118 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -737,2510 +796,3067 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.6"/>
+    <col min="1" max="1" width="44.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4">
         <v>4.2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4">
         <v>0.9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="4">
         <v>0.33</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4">
         <v>0.8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4">
         <v>0.01</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4">
         <v>1.42</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="4">
         <v>650711.26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="4">
         <v>20</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="6">
         <v>0.93</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="6">
         <v>2.67</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="6">
         <v>3.83</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="6">
         <v>0.9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="6">
         <v>1.32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="6">
         <v>1.21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="6">
         <v>0.63</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="6">
         <v>431201.82</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>628.6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>650711.26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C38" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C39" s="4">
         <v>0.68</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C40" s="4">
         <v>0.17</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F40" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C41" s="4">
         <v>407.58</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F41" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C42" s="4">
         <v>30</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F42" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C44">
         <v>4.25</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D44" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C45">
         <v>0.9</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C46">
         <v>0.39</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D46" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C47">
         <v>3500</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D47" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B49" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C49">
         <v>4.25</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D49" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C50">
         <v>0.9</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C51">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D51" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C52">
         <v>3500</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B54" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D54" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E54" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C55">
         <v>0.05</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D55" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E55" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B56" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C56">
         <v>79.42</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D56" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E56" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B57" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C57">
         <v>15</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D57" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E57" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D58" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E58" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B59" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C59">
         <v>12.23</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D59" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E59" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B60" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C60">
         <v>20</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D60" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E60" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C61">
         <v>6</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D61" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E61" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="C62" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F62" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C63" s="4">
         <v>44.91</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F63" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C64" s="4">
         <v>30</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F64" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C65" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F65" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C66" s="4">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F66" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F67" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C68" s="4">
         <v>100</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F68" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="71" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C71" s="4">
         <v>4.95</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E71" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F71" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C72" s="4">
         <v>0.15</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F72" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C73" s="4">
         <v>0.2</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D73" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F73" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B74" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C74" s="4">
         <v>0.4</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E74" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F74" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="75" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C75" s="4">
         <v>1.6</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F75" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="76" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B76" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D76" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F76" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="77" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C77" s="4">
         <v>6000000</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E77" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F77" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="78" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B78" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C78" s="4">
         <v>20</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D78" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F78" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="80" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C80" s="4">
         <v>5</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F80" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C81" s="4">
         <v>0.9</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D81" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E81" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F81" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="82" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C82" s="4">
         <v>0.69</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D82" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E82" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C83" s="4">
         <v>572425.66</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F83" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C84" s="4">
         <v>30</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E84" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B86" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C86" s="4">
         <v>0.09</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D86" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E86" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C87" s="4">
         <v>12.84</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F87" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C88" s="4">
         <v>0.9</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D88" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E88" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C89" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E89" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B90" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C90" s="4">
         <v>1539.62</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D90" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F90" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B91" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C91" s="4">
         <v>20</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D91" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F91" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C93" s="4">
         <v>3</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E93" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F93" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B94" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C94" s="4">
         <v>0.9</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E94" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F94" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="95" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B95" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C95" s="4">
         <v>0.08</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D95" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E95" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F95" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B96" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="C96" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E96" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F96" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C97" s="4">
         <v>0.02</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D97" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E97" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F97" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B98" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C98" s="4">
         <v>0.72</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D98" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E98" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F98" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C99" s="4">
         <v>0.72</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D99" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E99" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F99" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B100" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C100" s="4">
         <v>2700000</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E100" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F100" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B101" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C101" s="4">
         <v>25</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E101" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F101" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C103" s="4">
         <v>3</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E103" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F103" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B104" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C104" s="4">
         <v>0.9</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E104" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F104" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B105" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C105" s="4">
         <v>0.08</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D105" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E105" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F105" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B106" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="C106" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E106" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F106" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C107" s="4">
         <v>0.02</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D107" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E107" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F107" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B108" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C108" s="4">
         <v>0.72</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D108" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E108" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F108" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B109" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C109" s="4">
         <v>1.54</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E109" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F109" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B110" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C110" s="4">
         <v>2600000</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D110" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E110" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F110" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B111" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C111" s="4">
         <v>25</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D111" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E111" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F111" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C113" s="4">
         <v>3.32</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E113" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F113" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C114" s="4">
         <v>4.2</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D114" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E114" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F114" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B115" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C115" s="4">
         <v>1</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D115" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F115" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B116" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C116" s="4">
         <v>0.41</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D116" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E116" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F116" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B117" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C117" s="4">
         <v>560</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D117" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E117" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F117" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B118" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C118" s="4">
         <v>25</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D118" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E118" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F118" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C120" s="4">
         <v>2.87</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D120" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E120" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F120" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B121" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C121" s="4">
         <v>4.58</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D121" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E121" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F121" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B122" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C122" s="4">
         <v>0.35</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D122" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E122" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F122" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B123" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C123" s="4">
         <v>1</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D123" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E123" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F123" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B124" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C124" s="4">
         <v>0.27</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D124" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E124" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F124" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B125" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C125" s="4">
         <v>0.82</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D125" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E125" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F125" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B126" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>4921.02</v>
-      </c>
-      <c r="D110" s="0" t="s">
+      <c r="C126" s="4">
+        <v>4921.0200000000004</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E126" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B127" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C127" s="4">
         <v>25</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D127" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E127" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F127" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B128" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C128">
         <v>2.87</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D128" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E128" t="s">
         <v>114</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F128" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B129" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C129">
         <v>4.58</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D129" t="s">
         <v>125</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E129" t="s">
         <v>114</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B130" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C130">
         <v>0.35</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D130" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E130" t="s">
         <v>114</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B131" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C131">
         <v>1</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D131" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E131" t="s">
         <v>114</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B132" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C132">
         <v>0.27</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D132" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E132" t="s">
         <v>114</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B133" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C133">
         <v>0.82</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D133" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E133" t="s">
         <v>114</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B134" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C134">
         <v>3349.49</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D134" t="s">
         <v>46</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E134" t="s">
         <v>114</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B135" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C135">
         <v>25</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D135" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E135" t="s">
         <v>114</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B137" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C137">
         <v>1.18</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D137" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E137" t="s">
         <v>138</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F137" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B138" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D122" s="0" t="s">
+      <c r="C138">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D138" t="s">
         <v>74</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E138" t="s">
         <v>138</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F138" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B139" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C139">
         <v>1</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D139" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E139" t="s">
         <v>138</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>137</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B140" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C140">
         <v>15</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D140" t="s">
         <v>106</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E140" t="s">
         <v>138</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F140" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B141" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C141">
         <v>15</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D141" t="s">
         <v>29</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E141" t="s">
         <v>138</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F141" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B143" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C143">
         <v>1.5</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D143" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E143" t="s">
         <v>138</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F143" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C144">
         <v>0.33</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D144" t="s">
         <v>74</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E144" t="s">
         <v>138</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F144" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B145" t="s">
         <v>16</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C145">
         <v>1</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D145" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E145" t="s">
         <v>138</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F145" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B146" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C146">
         <v>220</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D146" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E146" t="s">
         <v>138</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F146" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>144</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B147" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C147">
         <v>15</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D147" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E147" t="s">
         <v>138</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="F147" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>150</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B150" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C150">
         <v>6.08</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D150" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E150" t="s">
         <v>138</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B151" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C151">
         <v>2.82</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D151" t="s">
         <v>74</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E151" t="s">
         <v>138</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C152">
         <v>0.89</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D152" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E152" t="s">
         <v>138</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C153">
         <v>590.91</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D153" t="s">
         <v>106</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E153" t="s">
         <v>138</v>
       </c>
-      <c r="F137" s="0" t="s">
+      <c r="F153" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B154" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C154">
         <v>25</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D154" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E154" t="s">
         <v>138</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F154" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="156" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B156" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C156" s="4">
         <v>2.36</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D156" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E156" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F156" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="157" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B157" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C157" s="4">
         <v>26.52</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D157" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E157" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F157" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="158" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B158" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C142" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D142" s="0" t="s">
+      <c r="C158" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E158" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F158" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="159" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B159" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C159" s="4">
         <v>1</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D159" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E159" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F159" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="160" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B160" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C160" s="4">
         <v>0.21</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D160" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E160" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F160" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="161" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B161" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C161" s="4">
         <v>0.76</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D161" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E161" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F161" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="162" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B162" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C162" s="4">
         <v>8110.39</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D162" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E162" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="F162" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="163" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B163" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C163" s="4">
         <v>25</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D163" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E163" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="F163" s="4" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="165" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="4">
+        <v>25</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="4">
+        <v>25</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3248,2490 +3864,2486 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+    <sheetView topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.6"/>
+    <col min="1" max="1" width="44.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4">
         <v>3.2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4">
         <v>0.9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="4">
         <v>0.3</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4">
         <v>0.8</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4">
         <v>0.01</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4">
         <v>1.36</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>565647.83</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="4">
+        <v>565647.82999999996</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="4">
         <v>20</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0.93</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>2.84</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>3.1</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0.9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>1.33</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1.25</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0.64</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>362825.01</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="4">
         <v>0.72</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="4">
         <v>0.12</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>271.72</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" s="4">
+        <v>271.72000000000003</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="4">
         <v>32</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>4.25</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>0.9</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>0.39</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>3000</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>4.25</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>0.9</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>3000</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>0.05</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>79.42</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>15</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>12.23</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>20</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="4">
         <v>1.85</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="4">
         <v>27.05</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="4">
         <v>30</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="4">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="4">
         <v>1.5</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="4">
         <v>100</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="4">
         <v>4.95</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="4">
         <v>0.15</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="4">
         <v>0.2</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="4">
         <v>0.4</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="4">
         <v>1.6</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="4">
         <v>0.75</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="4">
         <v>5000000</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="4">
         <v>20</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="4">
         <v>0.9</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="4">
         <v>0.69</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="4">
         <v>572425.66</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="4">
         <v>30</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="4">
         <v>0.09</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="4">
         <v>13.45</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="4">
         <v>0.9</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="4">
         <v>1462.64</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="4">
         <v>20</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="4">
         <v>3</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="4">
         <v>0.95</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="4">
         <v>0.08</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="4">
         <v>0.13</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="4">
         <v>0.02</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="4">
         <v>0.66</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="4">
         <v>0.66</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="4">
         <v>2400000</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="4">
         <v>25</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="4">
         <v>3</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="4">
         <v>0.95</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="4">
         <v>0.08</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="4">
         <v>0.13</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="4">
         <v>0.02</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="4">
         <v>0.66</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="4">
         <v>1.48</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="4">
         <v>2200000</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="4">
         <v>25</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="4">
         <v>3.39</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D97" s="0" t="s">
+      <c r="C97" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="4">
         <v>1</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="4">
         <v>0.42</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="4">
         <v>540</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="4">
         <v>25</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="4">
         <v>2.86</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="4">
         <v>4.63</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="4">
         <v>0.35</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="4">
         <v>1</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="4">
         <v>0.27</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="4">
         <v>0.83</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="4">
         <v>4647</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="4">
         <v>25</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>2.86</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>4.63</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>125</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>114</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>135</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>0.35</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>114</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>114</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>0.27</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>114</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>135</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>0.83</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>114</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>3252.72</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>46</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" t="s">
         <v>114</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>25</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>29</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>114</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D120" s="0" t="s">
+      <c r="C120">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D120" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>138</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D121" s="0" t="s">
+      <c r="C121">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D121" t="s">
         <v>74</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>138</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" t="s">
         <v>138</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>15</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>106</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>138</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>137</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>15</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>29</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" t="s">
         <v>138</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>144</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>1.45</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" t="s">
         <v>138</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>0.33</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>74</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" t="s">
         <v>138</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>144</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>16</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" t="s">
         <v>138</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>144</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>220</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" t="s">
         <v>106</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" t="s">
         <v>138</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>15</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" t="s">
         <v>138</v>
       </c>
-      <c r="F130" s="0" t="s">
+      <c r="F130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>150</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>6.17</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" t="s">
         <v>138</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="F132" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>150</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>2.85</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" t="s">
         <v>74</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" t="s">
         <v>138</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>150</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134">
         <v>0.89</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" t="s">
         <v>138</v>
       </c>
-      <c r="F134" s="0" t="s">
+      <c r="F134" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>150</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>563.64</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" t="s">
         <v>138</v>
       </c>
-      <c r="F135" s="0" t="s">
+      <c r="F135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136">
         <v>25</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" t="s">
         <v>29</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" t="s">
         <v>138</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="F136" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="4">
         <v>2.33</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F138" s="0" t="s">
+      <c r="F138" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="4">
         <v>26.03</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F139" s="0" t="s">
+      <c r="F139" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="4">
         <v>0.3</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F140" s="0" t="s">
+      <c r="F140" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="4">
         <v>1</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F141" s="0" t="s">
+      <c r="F141" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="4">
         <v>0.21</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F142" s="0" t="s">
+      <c r="F142" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="4">
         <v>0.76</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F143" s="0" t="s">
+      <c r="F143" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="4">
         <v>7589.64</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F144" s="0" t="s">
+      <c r="F144" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="4">
         <v>25</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="F145" s="4" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
